--- a/results/comparaison/GM/retardance/mean_normalized.xlsx
+++ b/results/comparaison/GM/retardance/mean_normalized.xlsx
@@ -983,412 +983,526 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.4750241039564895</v>
-      </c>
       <c r="C3">
-        <v>0.506471717368367</v>
+        <v>1.102254264823798</v>
       </c>
       <c r="D3">
-        <v>0.5501164391189003</v>
+        <v>0.9645708565248678</v>
       </c>
       <c r="E3">
-        <v>0.428312635404176</v>
-      </c>
-      <c r="F3">
-        <v>0.5821987822674812</v>
-      </c>
-      <c r="G3">
-        <v>0.4751365192744639</v>
+        <v>0.4562338722344608</v>
       </c>
       <c r="H3">
-        <v>0.3115641571960369</v>
+        <v>2.47858808301457</v>
       </c>
       <c r="I3">
-        <v>1.288107632929163</v>
+        <v>0.3119416696951756</v>
+      </c>
+      <c r="J3">
+        <v>0.4458669360273874</v>
+      </c>
+      <c r="K3">
+        <v>0.5354453097280064</v>
       </c>
       <c r="L3">
-        <v>0.6638466762892049</v>
+        <v>0.7711057727777669</v>
+      </c>
+      <c r="M3">
+        <v>0.4012480041025396</v>
       </c>
       <c r="N3">
-        <v>0.6069369608394337</v>
+        <v>0.2764004036636107</v>
+      </c>
+      <c r="O3">
+        <v>1.308328631467343</v>
       </c>
       <c r="P3">
-        <v>0.456987326993642</v>
-      </c>
-      <c r="R3">
-        <v>0.5553312977128376</v>
-      </c>
-      <c r="S3">
-        <v>0.747465750931695</v>
+        <v>0.7656080919840615</v>
+      </c>
+      <c r="Q3">
+        <v>0.5659614934385089</v>
       </c>
       <c r="T3">
-        <v>0.7323933080507333</v>
+        <v>0.9670743654678234</v>
+      </c>
+      <c r="U3">
+        <v>0.9308548993567372</v>
       </c>
       <c r="V3">
-        <v>1.029339383860719</v>
-      </c>
-      <c r="X3">
-        <v>2.173287978214464</v>
+        <v>0.3924047798022596</v>
+      </c>
+      <c r="W3">
+        <v>0.5761326014206936</v>
       </c>
       <c r="Y3">
-        <v>0.6059976692031547</v>
+        <v>0.9837509709045996</v>
       </c>
       <c r="Z3">
-        <v>0.3503925211191042</v>
-      </c>
-      <c r="AB3">
-        <v>0.899323316307215</v>
+        <v>0.7090089369217752</v>
+      </c>
+      <c r="AA3">
+        <v>0.6888721212640651</v>
       </c>
       <c r="AC3">
-        <v>0.5246215902933457</v>
+        <v>1.219577327128586</v>
       </c>
       <c r="AD3">
-        <v>0.4173097542898614</v>
-      </c>
-      <c r="AE3">
-        <v>1.239929545351674</v>
+        <v>0.9081432916911787</v>
       </c>
       <c r="AF3">
-        <v>0.8267022502039432</v>
+        <v>1.566284175743752</v>
       </c>
       <c r="AG3">
-        <v>0.4720096843969532</v>
-      </c>
-      <c r="AH3">
-        <v>0.3840658482083378</v>
+        <v>1.270958943903933</v>
       </c>
       <c r="AI3">
-        <v>0.8509020454442363</v>
+        <v>0.7197567479331816</v>
       </c>
       <c r="AJ3">
-        <v>0.9129060895663907</v>
+        <v>0.5188259140751997</v>
+      </c>
+      <c r="AK3">
+        <v>0.8639853520735323</v>
       </c>
       <c r="AL3">
-        <v>0.2601250593337041</v>
+        <v>1.607291671192058</v>
+      </c>
+      <c r="AM3">
+        <v>0.4388023014033371</v>
       </c>
       <c r="AN3">
-        <v>0.974525624429269</v>
+        <v>0.6719759003075548</v>
       </c>
       <c r="AO3">
-        <v>0.6168762361070512</v>
+        <v>0.9288587298398521</v>
       </c>
       <c r="AP3">
-        <v>1.554852863254166</v>
+        <v>0.7248918287271872</v>
       </c>
       <c r="AQ3">
-        <v>2.062830637803544</v>
+        <v>0.515135511803372</v>
       </c>
       <c r="AR3">
-        <v>0.9064938724896222</v>
+        <v>0.2117577127751095</v>
       </c>
       <c r="AT3">
-        <v>0.6190075583625142</v>
+        <v>1.162545818316439</v>
+      </c>
+      <c r="AU3">
+        <v>0.7662034415987886</v>
       </c>
       <c r="AV3">
-        <v>1.382548855870234</v>
+        <v>0.3682078907811946</v>
       </c>
       <c r="AW3">
-        <v>1.224615674333573</v>
+        <v>1.564912558546703</v>
       </c>
       <c r="AX3">
-        <v>0.5195976219380752</v>
+        <v>0.2330097480728694</v>
       </c>
       <c r="AY3">
-        <v>0.6423190531320804</v>
-      </c>
-      <c r="AZ3">
-        <v>1.017364903410489</v>
+        <v>1.892905209899657</v>
       </c>
       <c r="BA3">
-        <v>1.192756778186872</v>
+        <v>1.164636323895137</v>
       </c>
       <c r="BB3">
-        <v>0.9217683228592856</v>
+        <v>1.166405986793754</v>
       </c>
       <c r="BC3">
-        <v>0.7691648723806424</v>
+        <v>1.080374423237128</v>
       </c>
       <c r="BD3">
-        <v>1.055289204733197</v>
+        <v>0.3597927710826155</v>
       </c>
       <c r="BE3">
-        <v>0.5985833539281364</v>
+        <v>0.7318117604677369</v>
       </c>
       <c r="BF3">
-        <v>0.758459125588218</v>
-      </c>
-      <c r="BG3">
-        <v>0.8555979773214513</v>
+        <v>0.3258249662880092</v>
       </c>
       <c r="BH3">
-        <v>0.4111932934978562</v>
+        <v>1.215278186339078</v>
       </c>
       <c r="BI3">
-        <v>0.3838808959972063</v>
+        <v>1.024464544945965</v>
       </c>
       <c r="BJ3">
-        <v>0.6674189630666492</v>
+        <v>0.5152932817665991</v>
+      </c>
+      <c r="BK3">
+        <v>0.7888035120569157</v>
       </c>
       <c r="BL3">
-        <v>1.10040525089329</v>
-      </c>
-      <c r="BM3">
-        <v>0.3782141676467824</v>
+        <v>0.3596304224768154</v>
+      </c>
+      <c r="BN3">
+        <v>0.9190006168136985</v>
+      </c>
+      <c r="BO3">
+        <v>0.768742063824017</v>
+      </c>
+      <c r="BP3">
+        <v>0.7498446468776266</v>
       </c>
       <c r="BQ3">
-        <v>0.7274720779306515</v>
+        <v>0.5123780585529735</v>
       </c>
       <c r="BR3">
-        <v>0.4831557501403925</v>
+        <v>1.16825794672405</v>
       </c>
       <c r="BS3">
-        <v>0.7891750651201432</v>
+        <v>0.4266748125289158</v>
       </c>
       <c r="BT3">
-        <v>0.2121920642334255</v>
+        <v>1.189245916602849</v>
       </c>
       <c r="BU3">
-        <v>0.4621278405972037</v>
+        <v>0.4415968432972019</v>
       </c>
       <c r="BV3">
-        <v>0.2046922260184755</v>
+        <v>0.8101528182474849</v>
       </c>
       <c r="BW3">
-        <v>0.4624729863667362</v>
+        <v>0.9993462727687513</v>
       </c>
       <c r="BX3">
-        <v>0.6065058150497395</v>
-      </c>
-      <c r="CA3">
-        <v>0.5542419801325413</v>
+        <v>0.2906288334925456</v>
+      </c>
+      <c r="BY3">
+        <v>0.6589461249339607</v>
+      </c>
+      <c r="BZ3">
+        <v>0.7943909197215909</v>
       </c>
       <c r="CB3">
-        <v>0.6954644485415727</v>
+        <v>0.493071919360724</v>
+      </c>
+      <c r="CC3">
+        <v>0.2946943426409474</v>
       </c>
       <c r="CD3">
-        <v>0.7380229123649007</v>
+        <v>0.331089626933073</v>
       </c>
       <c r="CE3">
-        <v>0.4536367684166409</v>
+        <v>0.6587842422005734</v>
       </c>
       <c r="CF3">
-        <v>0.5332715072025982</v>
+        <v>0.3213358775155504</v>
+      </c>
+      <c r="CG3">
+        <v>0.570542303996062</v>
       </c>
       <c r="CH3">
-        <v>0.3573300983314335</v>
+        <v>0.7598609248305475</v>
+      </c>
+      <c r="CI3">
+        <v>0.4124741517658344</v>
       </c>
       <c r="CK3">
-        <v>0.4915197681717468</v>
+        <v>0.9110198715491228</v>
+      </c>
+      <c r="CL3">
+        <v>0.8979688069236502</v>
       </c>
       <c r="CM3">
-        <v>0.9832977064486041</v>
+        <v>0.9996711905346224</v>
       </c>
       <c r="CN3">
-        <v>0.8119531431019191</v>
+        <v>0.4624514709849908</v>
+      </c>
+      <c r="CO3">
+        <v>0.6173941528081596</v>
       </c>
       <c r="CP3">
-        <v>0.9853199619130139</v>
+        <v>0.6662322368349781</v>
+      </c>
+      <c r="CQ3">
+        <v>0.6181320952912862</v>
+      </c>
+      <c r="CR3">
+        <v>0.6177079233785353</v>
       </c>
       <c r="CS3">
-        <v>0.7350658473424176</v>
+        <v>0.3767304024885632</v>
+      </c>
+      <c r="CT3">
+        <v>0.3819212166335755</v>
+      </c>
+      <c r="CU3">
+        <v>0.407875956920054</v>
+      </c>
+      <c r="CV3">
+        <v>0.8448289020980254</v>
+      </c>
+      <c r="CW3">
+        <v>0.6549284249788727</v>
       </c>
     </row>
     <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0.3081192092800622</v>
+      </c>
       <c r="C4">
-        <v>0.5377611194045073</v>
+        <v>0.9579538359973132</v>
       </c>
       <c r="D4">
-        <v>0.5233341329589523</v>
+        <v>1.094264613991091</v>
       </c>
       <c r="E4">
-        <v>0.4511480609435217</v>
-      </c>
-      <c r="F4">
-        <v>0.6769096325414637</v>
+        <v>0.4972894476551007</v>
       </c>
       <c r="H4">
-        <v>0.3479844964183231</v>
+        <v>2.697993823784772</v>
       </c>
       <c r="I4">
-        <v>1.238915627307712</v>
+        <v>0.2976807540411529</v>
+      </c>
+      <c r="J4">
+        <v>0.4498880055270484</v>
+      </c>
+      <c r="K4">
+        <v>0.6229125244206393</v>
       </c>
       <c r="L4">
-        <v>0.800165437395551</v>
+        <v>0.6952740498735713</v>
+      </c>
+      <c r="M4">
+        <v>0.4325816122224656</v>
       </c>
       <c r="N4">
-        <v>0.6529549354953446</v>
+        <v>0.3049410293411574</v>
+      </c>
+      <c r="O4">
+        <v>1.251236788803341</v>
+      </c>
+      <c r="P4">
+        <v>0.7358979887702942</v>
       </c>
       <c r="Q4">
-        <v>0.6893695577974079</v>
-      </c>
-      <c r="R4">
-        <v>0.6699124511019093</v>
-      </c>
-      <c r="S4">
-        <v>0.8518317198541222</v>
+        <v>0.6219306885070821</v>
       </c>
       <c r="T4">
-        <v>0.6648980022025991</v>
+        <v>0.8469019375909859</v>
+      </c>
+      <c r="U4">
+        <v>0.7692753582728238</v>
       </c>
       <c r="V4">
-        <v>1.081328070526614</v>
+        <v>0.3919295602136965</v>
       </c>
       <c r="W4">
-        <v>0.3711143829412165</v>
-      </c>
-      <c r="X4">
-        <v>2.381745186718677</v>
-      </c>
-      <c r="Y4">
-        <v>0.7113364274186882</v>
+        <v>0.6912947041894295</v>
+      </c>
+      <c r="Z4">
+        <v>0.8391900440435939</v>
+      </c>
+      <c r="AA4">
+        <v>0.81243448952832</v>
       </c>
       <c r="AC4">
-        <v>0.5509320567614355</v>
-      </c>
-      <c r="AE4">
-        <v>1.579397799400173</v>
+        <v>1.577946689460976</v>
+      </c>
+      <c r="AD4">
+        <v>0.7981489064702462</v>
       </c>
       <c r="AF4">
-        <v>1.186696814614469</v>
-      </c>
-      <c r="AH4">
-        <v>0.4623997037702706</v>
+        <v>1.829313523193693</v>
+      </c>
+      <c r="AG4">
+        <v>1.050987702469671</v>
       </c>
       <c r="AI4">
-        <v>0.8812033153541332</v>
+        <v>0.7549900719860401</v>
       </c>
       <c r="AJ4">
-        <v>1.124477758398343</v>
+        <v>0.4790559555788428</v>
+      </c>
+      <c r="AK4">
+        <v>1.043475118186119</v>
       </c>
       <c r="AL4">
-        <v>0.2871957610890521</v>
+        <v>1.852276423705948</v>
+      </c>
+      <c r="AM4">
+        <v>0.4073382291840995</v>
+      </c>
+      <c r="AN4">
+        <v>0.9685075225266028</v>
       </c>
       <c r="AO4">
-        <v>0.9230937119972128</v>
+        <v>0.8147807484960767</v>
       </c>
       <c r="AP4">
-        <v>1.652020014789221</v>
+        <v>0.8252560491233999</v>
       </c>
       <c r="AQ4">
-        <v>2.262117867803003</v>
+        <v>0.9624690920586202</v>
       </c>
       <c r="AR4">
-        <v>1.041284012537862</v>
-      </c>
-      <c r="AS4">
-        <v>0.4383875495280481</v>
+        <v>0.2291306995428106</v>
       </c>
       <c r="AT4">
-        <v>0.5997454250717568</v>
+        <v>1.37635501218966</v>
+      </c>
+      <c r="AU4">
+        <v>0.7164629441276147</v>
       </c>
       <c r="AV4">
-        <v>1.587068547478165</v>
+        <v>0.3334245116185692</v>
       </c>
       <c r="AW4">
-        <v>1.185039625666576</v>
+        <v>1.522778047248215</v>
       </c>
       <c r="AX4">
-        <v>0.7353522987955475</v>
+        <v>0.3181203822888983</v>
+      </c>
+      <c r="AY4">
+        <v>1.69782389726488</v>
       </c>
       <c r="AZ4">
-        <v>1.053930529043412</v>
+        <v>0.4520341402465634</v>
       </c>
       <c r="BA4">
-        <v>1.203018807090039</v>
+        <v>1.199529504688053</v>
       </c>
       <c r="BB4">
-        <v>0.7777586707382692</v>
+        <v>1.35271470783612</v>
       </c>
       <c r="BC4">
-        <v>0.7964234641775159</v>
+        <v>1.081538678786863</v>
       </c>
       <c r="BD4">
-        <v>1.535362513012446</v>
+        <v>0.277876561738478</v>
       </c>
       <c r="BE4">
-        <v>0.7358240728400283</v>
+        <v>0.9063049791255323</v>
       </c>
       <c r="BF4">
-        <v>0.584693931823474</v>
-      </c>
-      <c r="BG4">
-        <v>0.6936870348374774</v>
+        <v>0.4572715061931153</v>
       </c>
       <c r="BH4">
-        <v>0.3554996534121331</v>
+        <v>1.7990744101569</v>
       </c>
       <c r="BI4">
-        <v>0.4697665624976047</v>
+        <v>1.298774460671168</v>
       </c>
       <c r="BJ4">
-        <v>0.6812349844039285</v>
+        <v>0.4725366867493945</v>
+      </c>
+      <c r="BK4">
+        <v>0.6180316600656143</v>
       </c>
       <c r="BL4">
-        <v>1.055867883267557</v>
+        <v>0.3134328106392663</v>
       </c>
       <c r="BM4">
-        <v>0.3442306101615328</v>
+        <v>0.6337720255642874</v>
       </c>
       <c r="BN4">
-        <v>0.8636195654453448</v>
+        <v>1.01073699515962</v>
       </c>
       <c r="BO4">
-        <v>0.6393053518689229</v>
+        <v>0.7453162114970943</v>
+      </c>
+      <c r="BP4">
+        <v>1.175382528089468</v>
+      </c>
+      <c r="BQ4">
+        <v>0.4826063308016209</v>
       </c>
       <c r="BR4">
-        <v>0.4588527259112173</v>
+        <v>1.219259300629908</v>
       </c>
       <c r="BS4">
-        <v>0.772572128211036</v>
+        <v>0.3000213484923374</v>
+      </c>
+      <c r="BT4">
+        <v>1.206538654936306</v>
       </c>
       <c r="BU4">
-        <v>0.362392169189691</v>
+        <v>0.3391286333097591</v>
+      </c>
+      <c r="BV4">
+        <v>0.903162253368189</v>
+      </c>
+      <c r="BW4">
+        <v>0.9189073391594067</v>
       </c>
       <c r="BX4">
-        <v>0.5210143051468924</v>
+        <v>0.2568729865351791</v>
       </c>
       <c r="BY4">
-        <v>1.565475996119235</v>
-      </c>
-      <c r="CA4">
-        <v>0.5360272091703112</v>
+        <v>0.7835281889303669</v>
+      </c>
+      <c r="BZ4">
+        <v>0.7872939152284613</v>
+      </c>
+      <c r="CB4">
+        <v>0.4933242279761353</v>
+      </c>
+      <c r="CC4">
+        <v>0.2390538940774798</v>
+      </c>
+      <c r="CD4">
+        <v>0.2882612754464903</v>
       </c>
       <c r="CE4">
-        <v>0.5296659077544531</v>
+        <v>0.7037186850222286</v>
       </c>
       <c r="CF4">
-        <v>0.5406123842393076</v>
+        <v>0.3182288311960252</v>
+      </c>
+      <c r="CG4">
+        <v>0.6179475968636974</v>
       </c>
       <c r="CH4">
-        <v>0.3710651926454122</v>
+        <v>0.7668257566258571</v>
       </c>
       <c r="CI4">
-        <v>0.5630610223785004</v>
+        <v>0.3914364933227475</v>
       </c>
       <c r="CK4">
-        <v>0.4844044032432117</v>
+        <v>0.8514456287270947</v>
       </c>
       <c r="CL4">
-        <v>0.5783345981189494</v>
+        <v>0.9498397668570207</v>
       </c>
       <c r="CM4">
-        <v>0.9214269985678305</v>
+        <v>1.159306658598305</v>
       </c>
       <c r="CN4">
-        <v>0.8101211900856492</v>
+        <v>0.5416695363473197</v>
+      </c>
+      <c r="CO4">
+        <v>0.7974069335436904</v>
       </c>
       <c r="CP4">
-        <v>1.217230037037471</v>
+        <v>0.8185291721359853</v>
+      </c>
+      <c r="CQ4">
+        <v>0.9105360724563434</v>
+      </c>
+      <c r="CR4">
+        <v>0.7812103570078678</v>
       </c>
       <c r="CS4">
-        <v>0.7932894099599445</v>
+        <v>0.4154618842385671</v>
+      </c>
+      <c r="CT4">
+        <v>0.2929403407193854</v>
       </c>
       <c r="CU4">
-        <v>1.246535777683376</v>
+        <v>0.4758125960191685</v>
+      </c>
+      <c r="CV4">
+        <v>0.8717794598713033</v>
+      </c>
+      <c r="CW4">
+        <v>1.056741542627079</v>
       </c>
     </row>
     <row r="5" spans="1:101">
@@ -1396,193 +1510,262 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3535265901975624</v>
+        <v>0.3183528865683999</v>
       </c>
       <c r="C5">
-        <v>0.6653642098765403</v>
+        <v>1.381043937822215</v>
       </c>
       <c r="D5">
-        <v>0.57815807912846</v>
-      </c>
-      <c r="F5">
-        <v>0.6418001506244887</v>
-      </c>
-      <c r="G5">
-        <v>0.5757988773419133</v>
+        <v>0.9778870861240316</v>
+      </c>
+      <c r="E5">
+        <v>0.3090968957669918</v>
       </c>
       <c r="H5">
-        <v>0.3483902149436409</v>
+        <v>2.956945784158049</v>
       </c>
       <c r="I5">
-        <v>1.555356476184985</v>
+        <v>0.3622050766494821</v>
+      </c>
+      <c r="J5">
+        <v>0.6045202807971813</v>
+      </c>
+      <c r="K5">
+        <v>0.5734928866869574</v>
+      </c>
+      <c r="L5">
+        <v>0.833481186026348</v>
+      </c>
+      <c r="M5">
+        <v>0.3938735184390575</v>
       </c>
       <c r="N5">
-        <v>0.711445144811198</v>
+        <v>0.307604727872492</v>
       </c>
       <c r="O5">
-        <v>0.3658084201057173</v>
-      </c>
-      <c r="S5">
-        <v>0.8398983424462492</v>
-      </c>
-      <c r="T5">
-        <v>0.9126726331319487</v>
+        <v>1.593082008911133</v>
+      </c>
+      <c r="P5">
+        <v>0.9146816966244057</v>
+      </c>
+      <c r="Q5">
+        <v>0.6885508883050372</v>
+      </c>
+      <c r="R5">
+        <v>0.3371723952662634</v>
+      </c>
+      <c r="U5">
+        <v>1.344912314101118</v>
       </c>
       <c r="V5">
-        <v>1.036977883384836</v>
+        <v>0.4872000994340332</v>
       </c>
       <c r="W5">
-        <v>0.3606725240272027</v>
-      </c>
-      <c r="X5">
-        <v>2.597777261589821</v>
-      </c>
-      <c r="Y5">
-        <v>0.6482381289102438</v>
+        <v>0.6243741729277925</v>
       </c>
       <c r="Z5">
-        <v>0.4219512047462405</v>
-      </c>
-      <c r="AB5">
-        <v>0.8495233442164607</v>
+        <v>0.6645478262058165</v>
+      </c>
+      <c r="AA5">
+        <v>0.9109891963067007</v>
       </c>
       <c r="AC5">
-        <v>0.560190103817253</v>
-      </c>
-      <c r="AD5">
-        <v>0.3853443407876347</v>
-      </c>
-      <c r="AE5">
-        <v>1.328914277106195</v>
-      </c>
-      <c r="AH5">
-        <v>0.4252304712489764</v>
+        <v>0.7367471958321626</v>
+      </c>
+      <c r="AF5">
+        <v>1.534108050981856</v>
+      </c>
+      <c r="AG5">
+        <v>1.131490924272254</v>
       </c>
       <c r="AI5">
-        <v>0.9123838874835665</v>
+        <v>0.7563386863849797</v>
       </c>
       <c r="AJ5">
-        <v>0.9017313639836054</v>
+        <v>0.4645221195595173</v>
+      </c>
+      <c r="AK5">
+        <v>0.6923131406552797</v>
       </c>
       <c r="AL5">
-        <v>0.3510144990279917</v>
-      </c>
-      <c r="AO5">
-        <v>0.5971552996112821</v>
+        <v>1.813574479932758</v>
+      </c>
+      <c r="AM5">
+        <v>0.4528328167167652</v>
+      </c>
+      <c r="AN5">
+        <v>0.6740812268666786</v>
       </c>
       <c r="AP5">
-        <v>1.422269282464789</v>
+        <v>0.809941512831139</v>
       </c>
       <c r="AQ5">
-        <v>2.316977996389172</v>
+        <v>0.863054636695468</v>
       </c>
       <c r="AR5">
-        <v>0.8400497856848113</v>
+        <v>0.211177950740928</v>
       </c>
       <c r="AT5">
-        <v>0.8419349942561715</v>
+        <v>1.051456926584451</v>
+      </c>
+      <c r="AU5">
+        <v>0.8743264073766632</v>
       </c>
       <c r="AV5">
-        <v>1.350511649711944</v>
+        <v>0.3942859441345868</v>
       </c>
       <c r="AW5">
-        <v>1.076200103711328</v>
+        <v>1.617985258228403</v>
       </c>
       <c r="AX5">
-        <v>0.5442226162056156</v>
+        <v>0.2784750040998452</v>
       </c>
       <c r="AY5">
-        <v>0.7164397766642566</v>
+        <v>1.698140992689452</v>
       </c>
       <c r="AZ5">
-        <v>0.8895568059200869</v>
+        <v>0.3804893780194962</v>
       </c>
       <c r="BA5">
-        <v>1.129775364256875</v>
+        <v>1.337325029346436</v>
       </c>
       <c r="BB5">
-        <v>0.8939648574366673</v>
+        <v>1.034808906829592</v>
       </c>
       <c r="BC5">
-        <v>0.8455107406909328</v>
+        <v>0.8080306581706901</v>
       </c>
       <c r="BD5">
-        <v>1.185420262509271</v>
+        <v>0.3738719101310073</v>
       </c>
       <c r="BE5">
-        <v>0.6022155907896488</v>
+        <v>0.7502839253841834</v>
       </c>
       <c r="BF5">
-        <v>0.8205343875133838</v>
+        <v>0.3536153005220919</v>
+      </c>
+      <c r="BG5">
+        <v>0.3546308989007427</v>
       </c>
       <c r="BH5">
-        <v>0.4029647233334537</v>
+        <v>1.278536516726366</v>
       </c>
       <c r="BI5">
-        <v>0.3690683730194242</v>
+        <v>1.081058422418302</v>
       </c>
       <c r="BJ5">
-        <v>0.5740811555696873</v>
+        <v>0.5487470470627365</v>
+      </c>
+      <c r="BK5">
+        <v>0.7736822447422225</v>
       </c>
       <c r="BL5">
-        <v>1.094487733990784</v>
+        <v>0.4128905168607841</v>
+      </c>
+      <c r="BM5">
+        <v>0.652172241946357</v>
+      </c>
+      <c r="BN5">
+        <v>0.8588739452729073</v>
+      </c>
+      <c r="BO5">
+        <v>0.8825658960485084</v>
       </c>
       <c r="BP5">
-        <v>0.7855634482908045</v>
+        <v>0.9630566016911174</v>
+      </c>
+      <c r="BQ5">
+        <v>0.5254769704026163</v>
       </c>
       <c r="BR5">
-        <v>0.4833925462223168</v>
+        <v>0.9814941972025379</v>
       </c>
       <c r="BS5">
-        <v>0.8124889605446033</v>
+        <v>0.4345879732288284</v>
+      </c>
+      <c r="BT5">
+        <v>1.603262702256213</v>
       </c>
       <c r="BU5">
-        <v>0.4121679443607024</v>
+        <v>0.467794408809224</v>
       </c>
       <c r="BV5">
-        <v>0.1718295939253834</v>
+        <v>0.5770532545068845</v>
+      </c>
+      <c r="BW5">
+        <v>0.7071179222249878</v>
       </c>
       <c r="BX5">
-        <v>0.6152490548088696</v>
+        <v>0.2914718170272501</v>
       </c>
       <c r="BY5">
-        <v>1.226193820680706</v>
-      </c>
-      <c r="CA5">
-        <v>0.5326287236382693</v>
+        <v>0.5098308693143834</v>
+      </c>
+      <c r="BZ5">
+        <v>1.008965701755151</v>
+      </c>
+      <c r="CB5">
+        <v>0.4914045231485468</v>
       </c>
       <c r="CC5">
-        <v>0.280675175934973</v>
+        <v>0.289734801837055</v>
       </c>
       <c r="CD5">
-        <v>1.024186259236458</v>
+        <v>0.3430557221720607</v>
       </c>
       <c r="CE5">
-        <v>0.5454695132893392</v>
+        <v>0.5456111741446182</v>
+      </c>
+      <c r="CF5">
+        <v>0.4199944915999729</v>
+      </c>
+      <c r="CG5">
+        <v>0.5223402964354965</v>
       </c>
       <c r="CH5">
-        <v>0.3526066074300224</v>
+        <v>0.629770503652976</v>
+      </c>
+      <c r="CI5">
+        <v>0.4124336172178013</v>
       </c>
       <c r="CK5">
-        <v>0.5021059199112918</v>
+        <v>0.6061418024800156</v>
+      </c>
+      <c r="CL5">
+        <v>0.7975805729978364</v>
       </c>
       <c r="CM5">
-        <v>0.829480577684221</v>
+        <v>0.9382992180579646</v>
       </c>
       <c r="CN5">
-        <v>0.6776965000874571</v>
+        <v>0.3911849756456647</v>
+      </c>
+      <c r="CO5">
+        <v>0.7709527474483537</v>
       </c>
       <c r="CP5">
-        <v>0.8779121019563252</v>
+        <v>0.6341360202681773</v>
+      </c>
+      <c r="CQ5">
+        <v>0.9435530733862032</v>
+      </c>
+      <c r="CR5">
+        <v>0.5367970872221046</v>
       </c>
       <c r="CS5">
-        <v>0.6109108180557775</v>
+        <v>0.2899476477222734</v>
+      </c>
+      <c r="CT5">
+        <v>0.2798037715796268</v>
       </c>
       <c r="CU5">
-        <v>1.268299143550055</v>
+        <v>0.3971557139452733</v>
+      </c>
+      <c r="CV5">
+        <v>0.8817931856653763</v>
       </c>
       <c r="CW5">
-        <v>0.6615375143738419</v>
+        <v>0.7123435991080912</v>
       </c>
     </row>
     <row r="6" spans="1:101">
@@ -1590,408 +1773,552 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3758467943546625</v>
-      </c>
-      <c r="C6">
-        <v>0.8979126753049093</v>
+        <v>0.3657340858589453</v>
       </c>
       <c r="D6">
-        <v>0.8526051282868994</v>
+        <v>1.40835031698735</v>
+      </c>
+      <c r="E6">
+        <v>0.3246982981912954</v>
       </c>
       <c r="F6">
-        <v>0.7032545918557666</v>
-      </c>
-      <c r="G6">
-        <v>1.067014363219414</v>
+        <v>0.7087697742564445</v>
       </c>
       <c r="H6">
-        <v>0.4082594011956053</v>
+        <v>2.607471136964991</v>
       </c>
       <c r="I6">
-        <v>1.885408445497181</v>
+        <v>0.5581357615947945</v>
       </c>
       <c r="J6">
-        <v>0.884625523743013</v>
+        <v>0.8244727721682832</v>
+      </c>
+      <c r="K6">
+        <v>0.6360241048079284</v>
+      </c>
+      <c r="L6">
+        <v>0.920432306174356</v>
       </c>
       <c r="M6">
-        <v>0.7784067610519073</v>
+        <v>0.4267529676682084</v>
       </c>
       <c r="N6">
-        <v>1.087953013991269</v>
+        <v>0.3791459556090565</v>
+      </c>
+      <c r="O6">
+        <v>1.93012468083613</v>
+      </c>
+      <c r="P6">
+        <v>0.8495980160966291</v>
       </c>
       <c r="Q6">
-        <v>0.8291215874521966</v>
-      </c>
-      <c r="S6">
-        <v>0.7467089012278522</v>
-      </c>
-      <c r="T6">
-        <v>1.181534916144459</v>
+        <v>1.0487175120392</v>
+      </c>
+      <c r="V6">
+        <v>0.9360823748233499</v>
       </c>
       <c r="W6">
-        <v>0.410236819558112</v>
-      </c>
-      <c r="X6">
-        <v>2.317824453490785</v>
+        <v>0.9178236501587487</v>
       </c>
       <c r="Y6">
-        <v>0.7035712570217707</v>
+        <v>1.172384956040004</v>
+      </c>
+      <c r="Z6">
+        <v>0.6609395570252692</v>
       </c>
       <c r="AA6">
-        <v>1.664258570839826</v>
-      </c>
-      <c r="AB6">
-        <v>0.9588227471492051</v>
+        <v>1.321867209247511</v>
       </c>
       <c r="AC6">
-        <v>0.5672499546727546</v>
+        <v>0.4709225776014286</v>
       </c>
       <c r="AD6">
-        <v>0.4773790851295068</v>
+        <v>1.137374533192082</v>
       </c>
       <c r="AE6">
-        <v>1.576415187752227</v>
+        <v>2.005160978088505</v>
+      </c>
+      <c r="AF6">
+        <v>1.76958780912551</v>
       </c>
       <c r="AG6">
-        <v>0.6566091071260232</v>
+        <v>2.050892718290671</v>
       </c>
       <c r="AH6">
-        <v>0.5690079740693496</v>
+        <v>1.772366228394991</v>
+      </c>
+      <c r="AI6">
+        <v>0.8272392805702065</v>
       </c>
       <c r="AJ6">
-        <v>1.206191657669407</v>
+        <v>0.5201304260896866</v>
       </c>
       <c r="AK6">
-        <v>0.9930931473353508</v>
+        <v>1.170211907268192</v>
+      </c>
+      <c r="AL6">
+        <v>2.260132796419094</v>
       </c>
       <c r="AM6">
-        <v>1.87231058481998</v>
+        <v>0.5404854698920569</v>
       </c>
       <c r="AN6">
-        <v>1.360776134852198</v>
+        <v>0.9631110133136526</v>
       </c>
       <c r="AO6">
-        <v>0.792626998890177</v>
+        <v>1.066055057732161</v>
       </c>
       <c r="AP6">
-        <v>1.651412925287562</v>
+        <v>0.8195626956171072</v>
       </c>
       <c r="AQ6">
-        <v>2.895103421531024</v>
+        <v>0.8588370430590258</v>
       </c>
       <c r="AR6">
-        <v>1.102488226410283</v>
+        <v>0.2597537739612259</v>
+      </c>
+      <c r="AS6">
+        <v>2.151067205154114</v>
+      </c>
+      <c r="AT6">
+        <v>1.229557455038681</v>
+      </c>
+      <c r="AU6">
+        <v>0.8945378185471773</v>
       </c>
       <c r="AV6">
-        <v>1.46209272097566</v>
+        <v>0.482425068440725</v>
       </c>
       <c r="AW6">
-        <v>0.8327209741424569</v>
+        <v>2.868464838300368</v>
       </c>
       <c r="AX6">
-        <v>0.6310758710906131</v>
+        <v>0.2913663757357954</v>
+      </c>
+      <c r="AY6">
+        <v>2.373718146353578</v>
+      </c>
+      <c r="AZ6">
+        <v>0.3244905338658569</v>
       </c>
       <c r="BA6">
-        <v>1.213165482433202</v>
+        <v>0.9364682103511449</v>
       </c>
       <c r="BB6">
-        <v>0.8402816091702481</v>
+        <v>1.197900480157607</v>
+      </c>
+      <c r="BC6">
+        <v>0.950897811713054</v>
       </c>
       <c r="BD6">
-        <v>1.270454167717902</v>
+        <v>0.2849092884023355</v>
       </c>
       <c r="BE6">
-        <v>0.6797815179437651</v>
+        <v>0.8767150811374093</v>
       </c>
       <c r="BF6">
-        <v>0.8284730258423354</v>
+        <v>0.4433478641245351</v>
       </c>
       <c r="BG6">
-        <v>0.820966273471409</v>
+        <v>0.5029675415100749</v>
+      </c>
+      <c r="BH6">
+        <v>1.209561518912376</v>
       </c>
       <c r="BI6">
-        <v>0.4364631516234631</v>
+        <v>1.124105848489122</v>
       </c>
       <c r="BJ6">
-        <v>0.8332540376442045</v>
+        <v>0.4377682306613029</v>
+      </c>
+      <c r="BK6">
+        <v>0.8325496604223089</v>
       </c>
       <c r="BL6">
-        <v>1.182008118806865</v>
+        <v>0.3361498725917531</v>
+      </c>
+      <c r="BM6">
+        <v>0.7023170304189889</v>
+      </c>
+      <c r="BN6">
+        <v>1.163198973063093</v>
       </c>
       <c r="BO6">
-        <v>0.6358882438766844</v>
+        <v>0.8074184648437335</v>
+      </c>
+      <c r="BP6">
+        <v>1.148844046956578</v>
+      </c>
+      <c r="BQ6">
+        <v>0.4391650171736403</v>
       </c>
       <c r="BR6">
-        <v>0.5247803572301013</v>
+        <v>0.9095483403980904</v>
       </c>
       <c r="BS6">
-        <v>0.8981288551526562</v>
+        <v>0.482836132279039</v>
+      </c>
+      <c r="BT6">
+        <v>1.467611181494778</v>
       </c>
       <c r="BU6">
-        <v>0.4259403459188209</v>
+        <v>0.4872691534221341</v>
       </c>
       <c r="BV6">
-        <v>0.182118596516705</v>
+        <v>0.7202292128530074</v>
+      </c>
+      <c r="BW6">
+        <v>1.061620514329385</v>
       </c>
       <c r="BX6">
-        <v>0.6150969450138363</v>
+        <v>0.2751546919650397</v>
       </c>
       <c r="BY6">
-        <v>1.779779096027463</v>
+        <v>0.7427385125532635</v>
+      </c>
+      <c r="BZ6">
+        <v>1.086509045277921</v>
       </c>
       <c r="CA6">
-        <v>0.6096794846807173</v>
+        <v>0.6188010678971637</v>
+      </c>
+      <c r="CB6">
+        <v>0.6580083252732064</v>
       </c>
       <c r="CC6">
-        <v>0.5588114405291269</v>
+        <v>0.4238388994926606</v>
       </c>
       <c r="CD6">
-        <v>0.7496769699064396</v>
+        <v>0.3106380758184251</v>
       </c>
       <c r="CE6">
-        <v>0.6120084974091027</v>
+        <v>0.584556563927155</v>
       </c>
       <c r="CF6">
-        <v>0.5890679662863577</v>
+        <v>0.5063797243469377</v>
+      </c>
+      <c r="CG6">
+        <v>0.7232654188911506</v>
       </c>
       <c r="CH6">
-        <v>0.5915961723143275</v>
+        <v>0.8794971659262334</v>
       </c>
       <c r="CI6">
-        <v>0.8485111862100579</v>
+        <v>0.3663133945914944</v>
       </c>
       <c r="CJ6">
-        <v>0.7661436011372612</v>
+        <v>0.5960601573978275</v>
       </c>
       <c r="CK6">
-        <v>0.6719110430727598</v>
+        <v>0.6335035832947824</v>
       </c>
       <c r="CL6">
-        <v>0.535573259402136</v>
+        <v>0.9541413516647462</v>
       </c>
       <c r="CM6">
-        <v>0.7389902174760079</v>
+        <v>1.015371670425004</v>
       </c>
       <c r="CN6">
-        <v>0.9155422389597747</v>
+        <v>0.4869362060564776</v>
+      </c>
+      <c r="CO6">
+        <v>0.6073649058454459</v>
       </c>
       <c r="CP6">
-        <v>0.7789591245289215</v>
+        <v>0.7245966891905242</v>
       </c>
       <c r="CQ6">
-        <v>0.4537420425923072</v>
+        <v>0.6486059338454672</v>
+      </c>
+      <c r="CR6">
+        <v>0.6310377649064672</v>
       </c>
       <c r="CS6">
-        <v>0.7078698249550688</v>
+        <v>0.4432048937123777</v>
       </c>
       <c r="CT6">
-        <v>0.4306038626382321</v>
+        <v>0.3819831588950076</v>
+      </c>
+      <c r="CU6">
+        <v>0.7120811381720964</v>
+      </c>
+      <c r="CV6">
+        <v>0.7607757994612929</v>
+      </c>
+      <c r="CW6">
+        <v>1.080268088993769</v>
       </c>
     </row>
     <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.4042463657445631</v>
-      </c>
       <c r="C7">
-        <v>0.7049379713453382</v>
+        <v>1.650088447744517</v>
       </c>
       <c r="D7">
-        <v>0.6163413571940293</v>
+        <v>1.143956097129986</v>
+      </c>
+      <c r="E7">
+        <v>0.3473642013319153</v>
       </c>
       <c r="F7">
-        <v>0.7549662584516538</v>
-      </c>
-      <c r="G7">
-        <v>0.7527594762697786</v>
+        <v>0.5400863601255407</v>
       </c>
       <c r="H7">
-        <v>0.4374885298507286</v>
-      </c>
-      <c r="I7">
-        <v>1.443956609530499</v>
+        <v>2.241003024294699</v>
+      </c>
+      <c r="J7">
+        <v>0.6326514922224583</v>
+      </c>
+      <c r="K7">
+        <v>0.6622680095281731</v>
       </c>
       <c r="L7">
-        <v>0.6826648368042499</v>
+        <v>0.7812914916886669</v>
+      </c>
+      <c r="M7">
+        <v>0.4523203978087331</v>
       </c>
       <c r="N7">
-        <v>0.604404064227301</v>
-      </c>
-      <c r="R7">
-        <v>0.6508336635405139</v>
+        <v>0.3990722769874444</v>
+      </c>
+      <c r="O7">
+        <v>1.436199561039446</v>
+      </c>
+      <c r="P7">
+        <v>0.832679046882981</v>
+      </c>
+      <c r="Q7">
+        <v>0.5754157019446537</v>
       </c>
       <c r="T7">
-        <v>1.019045028551244</v>
+        <v>1.14388093312875</v>
+      </c>
+      <c r="U7">
+        <v>1.216409200829059</v>
       </c>
       <c r="V7">
-        <v>1.236531494917749</v>
-      </c>
-      <c r="X7">
-        <v>2.052881305772666</v>
+        <v>0.6529082527282738</v>
+      </c>
+      <c r="W7">
+        <v>0.5750393209882136</v>
       </c>
       <c r="Y7">
-        <v>0.7836901662472562</v>
+        <v>0.8040489456366754</v>
       </c>
       <c r="Z7">
-        <v>0.5763896320151561</v>
+        <v>0.8331544979606952</v>
       </c>
       <c r="AA7">
-        <v>1.010655620074994</v>
+        <v>0.6448069592931112</v>
       </c>
       <c r="AC7">
-        <v>0.5896908167477133</v>
-      </c>
-      <c r="AD7">
-        <v>0.461597932138051</v>
+        <v>0.7880729113093606</v>
       </c>
       <c r="AE7">
-        <v>1.141521031763464</v>
+        <v>1.30855047459237</v>
+      </c>
+      <c r="AF7">
+        <v>1.549922915470175</v>
+      </c>
+      <c r="AG7">
+        <v>1.401075752989194</v>
       </c>
       <c r="AH7">
-        <v>0.5095442467756497</v>
+        <v>1.129389331420932</v>
       </c>
       <c r="AI7">
-        <v>0.9362232984644376</v>
+        <v>0.72425628388309</v>
       </c>
       <c r="AJ7">
-        <v>0.8151700490067502</v>
+        <v>0.4791256161517795</v>
       </c>
       <c r="AK7">
-        <v>1.146056071961257</v>
+        <v>0.6830667716235538</v>
       </c>
       <c r="AL7">
-        <v>0.3482539682611623</v>
+        <v>2.018885465532707</v>
       </c>
       <c r="AM7">
-        <v>1.439583127232048</v>
+        <v>0.5462544665742506</v>
       </c>
       <c r="AO7">
-        <v>0.4663030416086696</v>
+        <v>0.5942930750294202</v>
       </c>
       <c r="AP7">
-        <v>1.315315925766491</v>
+        <v>0.797333606683914</v>
       </c>
       <c r="AQ7">
-        <v>2.551310773563586</v>
+        <v>1.366371247594259</v>
       </c>
       <c r="AR7">
-        <v>0.8938491009056087</v>
+        <v>0.2886341715086207</v>
+      </c>
+      <c r="AS7">
+        <v>1.711247544534713</v>
       </c>
       <c r="AT7">
-        <v>0.5595499265008941</v>
+        <v>1.163390809778031</v>
+      </c>
+      <c r="AU7">
+        <v>0.8439790665045406</v>
       </c>
       <c r="AV7">
-        <v>1.528930626629191</v>
+        <v>0.3776907240469749</v>
       </c>
       <c r="AW7">
-        <v>0.9190403188630517</v>
+        <v>2.297970631851815</v>
       </c>
       <c r="AX7">
-        <v>0.3506224309887613</v>
+        <v>0.3976733401309365</v>
+      </c>
+      <c r="AY7">
+        <v>1.809221154191396</v>
       </c>
       <c r="AZ7">
-        <v>0.893578010096199</v>
+        <v>0.419925115721289</v>
       </c>
       <c r="BA7">
-        <v>1.268638704312154</v>
+        <v>1.313167992917837</v>
       </c>
       <c r="BB7">
-        <v>0.7025872205901788</v>
+        <v>1.060212051616196</v>
       </c>
       <c r="BC7">
-        <v>0.7813565151808152</v>
+        <v>0.6772961293568482</v>
+      </c>
+      <c r="BD7">
+        <v>0.4194663484874531</v>
       </c>
       <c r="BE7">
-        <v>0.6237999729102764</v>
+        <v>0.9169171640455749</v>
       </c>
       <c r="BF7">
-        <v>0.6742726561662734</v>
+        <v>0.3871315356388194</v>
       </c>
       <c r="BG7">
-        <v>0.7019581311411768</v>
+        <v>0.4766060142620538</v>
+      </c>
+      <c r="BH7">
+        <v>0.9086239282939312</v>
       </c>
       <c r="BI7">
-        <v>0.4306745046780024</v>
+        <v>1.260853203098178</v>
       </c>
       <c r="BJ7">
-        <v>0.6190646620482659</v>
+        <v>0.4757420059439645</v>
+      </c>
+      <c r="BK7">
+        <v>0.6014212210319301</v>
       </c>
       <c r="BL7">
-        <v>1.093086899285157</v>
+        <v>0.373705112749541</v>
       </c>
       <c r="BM7">
-        <v>0.3757282756264355</v>
+        <v>0.4296604437680536</v>
+      </c>
+      <c r="BN7">
+        <v>0.7935237890814122</v>
+      </c>
+      <c r="BO7">
+        <v>0.9286917255284146</v>
+      </c>
+      <c r="BP7">
+        <v>0.6295769226377101</v>
+      </c>
+      <c r="BQ7">
+        <v>0.5013390518569719</v>
       </c>
       <c r="BR7">
-        <v>0.5287657753429892</v>
+        <v>0.8307666723436689</v>
       </c>
       <c r="BS7">
-        <v>0.8925130107906594</v>
+        <v>0.3377830834027682</v>
       </c>
       <c r="BT7">
-        <v>0.2402394307527503</v>
+        <v>1.189628812811258</v>
       </c>
       <c r="BU7">
-        <v>0.3509129683650193</v>
+        <v>0.4177659631276756</v>
       </c>
       <c r="BV7">
-        <v>0.200020676548588</v>
+        <v>0.6025878867422665</v>
       </c>
       <c r="BW7">
-        <v>0.4940941255975341</v>
+        <v>0.7659058282602239</v>
       </c>
       <c r="BX7">
-        <v>0.5581347539238714</v>
-      </c>
-      <c r="CA7">
-        <v>0.5707972518727781</v>
+        <v>0.3070665763519534</v>
+      </c>
+      <c r="BY7">
+        <v>0.5869456170256746</v>
+      </c>
+      <c r="BZ7">
+        <v>1.150686125716017</v>
       </c>
       <c r="CB7">
-        <v>0.6358591480221228</v>
+        <v>0.4019419840824607</v>
       </c>
       <c r="CC7">
-        <v>0.4729080406637253</v>
+        <v>0.2521756355704386</v>
       </c>
       <c r="CD7">
-        <v>0.7938114006414048</v>
+        <v>0.3475729405916415</v>
       </c>
       <c r="CE7">
-        <v>0.4760184327006832</v>
+        <v>0.6372009877393169</v>
       </c>
       <c r="CF7">
-        <v>0.4712567076212871</v>
+        <v>0.3429525276028221</v>
       </c>
       <c r="CG7">
-        <v>0.8153753405126081</v>
+        <v>0.5528913578951903</v>
       </c>
       <c r="CH7">
-        <v>0.3270317372854906</v>
-      </c>
-      <c r="CJ7">
-        <v>0.7182569097326691</v>
+        <v>0.8974481649945754</v>
+      </c>
+      <c r="CI7">
+        <v>0.325742288956364</v>
       </c>
       <c r="CK7">
-        <v>0.4819043994173962</v>
+        <v>0.7896608563273563</v>
+      </c>
+      <c r="CL7">
+        <v>0.8724748159870112</v>
       </c>
       <c r="CM7">
-        <v>0.8220020443635978</v>
+        <v>0.9932188084501351</v>
       </c>
       <c r="CN7">
-        <v>0.8778080524715934</v>
+        <v>0.4397862149103036</v>
+      </c>
+      <c r="CO7">
+        <v>0.6233500334714016</v>
       </c>
       <c r="CP7">
-        <v>1.004471836609252</v>
+        <v>0.7600845733369228</v>
       </c>
       <c r="CQ7">
-        <v>0.4009945772192066</v>
+        <v>0.614818291365383</v>
+      </c>
+      <c r="CR7">
+        <v>0.6056314383738051</v>
       </c>
       <c r="CS7">
-        <v>0.6583552514686266</v>
+        <v>0.3803166666888707</v>
+      </c>
+      <c r="CT7">
+        <v>0.4247603252571706</v>
+      </c>
+      <c r="CU7">
+        <v>0.3808805157633307</v>
+      </c>
+      <c r="CV7">
+        <v>0.6348710235538042</v>
       </c>
       <c r="CW7">
-        <v>0.7280761520889661</v>
+        <v>1.213759024857209</v>
       </c>
     </row>
   </sheetData>
